--- a/Data/collapsed database manual cases/nayarit_collapsed_edited.xlsx
+++ b/Data/collapsed database manual cases/nayarit_collapsed_edited.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11214"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d7da8e9ec94b4821/Documents/ITAM/RA - Horacio/Monitoring Brokers/Data/States/nayarit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpzorrilla/Documents/GitHub/The-Mexican-municipal-elections-electoral-precinct-level-database/Data/collapsed database manual cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="8_{0B694006-5C5B-1D48-9F53-34BAC2676292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37872DBA-7F93-8D40-8C74-867C9B117D3D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA572F0-D2DE-D74A-A3A4-70864018B61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4480" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1601" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1665" uniqueCount="381">
   <si>
     <t>uniqueid</t>
   </si>
@@ -1112,6 +1112,60 @@
   </si>
   <si>
     <t>https://www.jornada.com.mx/2001/01/20/030n3est.html</t>
+  </si>
+  <si>
+    <t>PT_PVEM_MORENA_PANAL</t>
+  </si>
+  <si>
+    <t>MANUEL RAMON SALCEDO OSUNA</t>
+  </si>
+  <si>
+    <t>LUCRECIA DE JESUS ALDUENDA ECHEAGARAY</t>
+  </si>
+  <si>
+    <t>JESUS RAFAEL SANDOVAL DIAZ</t>
+  </si>
+  <si>
+    <t>CARMINA YADIRA REGALADO MARDUEÑO</t>
+  </si>
+  <si>
+    <t>ROMINA CHANG AGUILAR</t>
+  </si>
+  <si>
+    <t>MARISOL SANCHEZ NAVARRO</t>
+  </si>
+  <si>
+    <t>ANTONIO CARRILLO RAMOS</t>
+  </si>
+  <si>
+    <t>RITO ALFONSO GALVAN ZERMEÑO</t>
+  </si>
+  <si>
+    <t>OSCAR FLORES ESTRADA</t>
+  </si>
+  <si>
+    <t>ISABEL CRISTINA CORONADO RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>MARISA SOLANO TRUJILLO</t>
+  </si>
+  <si>
+    <t>EDUARDO LUGO LOPEZ</t>
+  </si>
+  <si>
+    <t>GABINO JIMENEZ HUERTA</t>
+  </si>
+  <si>
+    <t>MARIA GERALDINE PONCE MENDEZ</t>
+  </si>
+  <si>
+    <t>MIRTHA ILIANA VILLALVAZO AMAYA</t>
+  </si>
+  <si>
+    <t>REYNA LUCIA DE HARO DE LA CRUZ</t>
+  </si>
+  <si>
+    <t>PT_PVEM_MORENA</t>
   </si>
 </sst>
 </file>
@@ -1465,10 +1519,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:S141"/>
+  <dimension ref="A1:S157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H92" sqref="H92"/>
+      <selection activeCell="F122" sqref="F122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8175,6 +8229,326 @@
         <v>46</v>
       </c>
     </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>18001</v>
+      </c>
+      <c r="B142">
+        <v>2024</v>
+      </c>
+      <c r="C142" t="s">
+        <v>19</v>
+      </c>
+      <c r="E142" t="s">
+        <v>363</v>
+      </c>
+      <c r="F142" t="s">
+        <v>364</v>
+      </c>
+      <c r="H142" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>18002</v>
+      </c>
+      <c r="B143">
+        <v>2024</v>
+      </c>
+      <c r="C143" t="s">
+        <v>19</v>
+      </c>
+      <c r="E143" t="s">
+        <v>363</v>
+      </c>
+      <c r="F143" t="s">
+        <v>365</v>
+      </c>
+      <c r="H143" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>18003</v>
+      </c>
+      <c r="B144">
+        <v>2024</v>
+      </c>
+      <c r="C144" t="s">
+        <v>19</v>
+      </c>
+      <c r="E144" t="s">
+        <v>363</v>
+      </c>
+      <c r="F144" t="s">
+        <v>366</v>
+      </c>
+      <c r="H144" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>18004</v>
+      </c>
+      <c r="B145">
+        <v>2024</v>
+      </c>
+      <c r="C145" t="s">
+        <v>19</v>
+      </c>
+      <c r="E145" t="s">
+        <v>363</v>
+      </c>
+      <c r="F145" t="s">
+        <v>367</v>
+      </c>
+      <c r="H145" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>18005</v>
+      </c>
+      <c r="B146">
+        <v>2024</v>
+      </c>
+      <c r="C146" t="s">
+        <v>19</v>
+      </c>
+      <c r="E146" t="s">
+        <v>363</v>
+      </c>
+      <c r="F146" t="s">
+        <v>368</v>
+      </c>
+      <c r="H146" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>18007</v>
+      </c>
+      <c r="B147">
+        <v>2024</v>
+      </c>
+      <c r="C147" t="s">
+        <v>19</v>
+      </c>
+      <c r="E147" t="s">
+        <v>363</v>
+      </c>
+      <c r="F147" t="s">
+        <v>369</v>
+      </c>
+      <c r="H147" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>18008</v>
+      </c>
+      <c r="B148">
+        <v>2024</v>
+      </c>
+      <c r="C148" t="s">
+        <v>19</v>
+      </c>
+      <c r="E148" t="s">
+        <v>363</v>
+      </c>
+      <c r="F148" t="s">
+        <v>370</v>
+      </c>
+      <c r="H148" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>18010</v>
+      </c>
+      <c r="B149">
+        <v>2024</v>
+      </c>
+      <c r="C149" t="s">
+        <v>19</v>
+      </c>
+      <c r="E149" t="s">
+        <v>363</v>
+      </c>
+      <c r="F149" t="s">
+        <v>371</v>
+      </c>
+      <c r="H149" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>18011</v>
+      </c>
+      <c r="B150">
+        <v>2024</v>
+      </c>
+      <c r="C150" t="s">
+        <v>19</v>
+      </c>
+      <c r="E150" t="s">
+        <v>363</v>
+      </c>
+      <c r="F150" t="s">
+        <v>372</v>
+      </c>
+      <c r="H150" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>18013</v>
+      </c>
+      <c r="B151">
+        <v>2024</v>
+      </c>
+      <c r="C151" t="s">
+        <v>19</v>
+      </c>
+      <c r="E151" t="s">
+        <v>363</v>
+      </c>
+      <c r="F151" t="s">
+        <v>373</v>
+      </c>
+      <c r="H151" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>18014</v>
+      </c>
+      <c r="B152">
+        <v>2024</v>
+      </c>
+      <c r="C152" t="s">
+        <v>19</v>
+      </c>
+      <c r="E152" t="s">
+        <v>363</v>
+      </c>
+      <c r="F152" t="s">
+        <v>374</v>
+      </c>
+      <c r="H152" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>18015</v>
+      </c>
+      <c r="B153">
+        <v>2024</v>
+      </c>
+      <c r="C153" t="s">
+        <v>19</v>
+      </c>
+      <c r="E153" t="s">
+        <v>363</v>
+      </c>
+      <c r="F153" t="s">
+        <v>375</v>
+      </c>
+      <c r="H153" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>18016</v>
+      </c>
+      <c r="B154">
+        <v>2024</v>
+      </c>
+      <c r="C154" t="s">
+        <v>19</v>
+      </c>
+      <c r="E154" t="s">
+        <v>363</v>
+      </c>
+      <c r="F154" t="s">
+        <v>376</v>
+      </c>
+      <c r="H154" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>18017</v>
+      </c>
+      <c r="B155">
+        <v>2024</v>
+      </c>
+      <c r="C155" t="s">
+        <v>19</v>
+      </c>
+      <c r="E155" t="s">
+        <v>363</v>
+      </c>
+      <c r="F155" t="s">
+        <v>377</v>
+      </c>
+      <c r="H155" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>18020</v>
+      </c>
+      <c r="B156">
+        <v>2024</v>
+      </c>
+      <c r="C156" t="s">
+        <v>19</v>
+      </c>
+      <c r="E156" t="s">
+        <v>363</v>
+      </c>
+      <c r="F156" t="s">
+        <v>378</v>
+      </c>
+      <c r="H156" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>18019</v>
+      </c>
+      <c r="B157">
+        <v>2024</v>
+      </c>
+      <c r="C157" t="s">
+        <v>19</v>
+      </c>
+      <c r="E157" t="s">
+        <v>363</v>
+      </c>
+      <c r="F157" t="s">
+        <v>379</v>
+      </c>
+      <c r="H157" t="s">
+        <v>380</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:S141" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">

--- a/Data/collapsed database manual cases/nayarit_collapsed_edited.xlsx
+++ b/Data/collapsed database manual cases/nayarit_collapsed_edited.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpzorrilla/Documents/GitHub/The-Mexican-municipal-elections-electoral-precinct-level-database/Data/collapsed database manual cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA572F0-D2DE-D74A-A3A4-70864018B61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22AFDF9E-B3A5-6541-A811-DB3C2E8A0BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4480" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1665" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="394">
   <si>
     <t>uniqueid</t>
   </si>
@@ -1166,6 +1166,45 @@
   </si>
   <si>
     <t>PT_PVEM_MORENA</t>
+  </si>
+  <si>
+    <t>PAN_PRD_PT_PRS</t>
+  </si>
+  <si>
+    <t>GLORIA ELIZABETH NU√ëEZ SANCHEZ</t>
+  </si>
+  <si>
+    <t>NADIA ALEJANDRA RAMIREZ LOPEZ</t>
+  </si>
+  <si>
+    <t>ADAN FRAUSTO ARELLANO</t>
+  </si>
+  <si>
+    <t>JUAN GREGORIO RAMIREZ RUIZ</t>
+  </si>
+  <si>
+    <t>PATRICIA PE√ëA PLANCARTE</t>
+  </si>
+  <si>
+    <t>JOSE RODRIGO RAMIREZ MOJARRO</t>
+  </si>
+  <si>
+    <t>GUADALUPE FRANCISCO JAVIER CASTELLON FONSECA</t>
+  </si>
+  <si>
+    <t>JOSE OCTAVIO OLAGUE AVENA</t>
+  </si>
+  <si>
+    <t>JESUS GUERRA HERNANDEZ</t>
+  </si>
+  <si>
+    <t>JL</t>
+  </si>
+  <si>
+    <t>https://www.ieenayarit.org/PDF/2017/Acuerdos/ACU-CLE-028-2017-A1-ConvCoal-JuntosPorTi.pdf</t>
+  </si>
+  <si>
+    <t>PT</t>
   </si>
 </sst>
 </file>
@@ -1519,10 +1558,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:S157"/>
+  <dimension ref="A1:S167"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F122" sqref="F122"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="I171" sqref="I171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8289,7 +8328,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>18004</v>
       </c>
@@ -8309,7 +8348,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>18005</v>
       </c>
@@ -8329,7 +8368,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>18007</v>
       </c>
@@ -8349,7 +8388,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>18008</v>
       </c>
@@ -8369,7 +8408,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>18010</v>
       </c>
@@ -8389,7 +8428,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>18011</v>
       </c>
@@ -8409,7 +8448,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>18013</v>
       </c>
@@ -8429,7 +8468,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>18014</v>
       </c>
@@ -8449,7 +8488,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>18015</v>
       </c>
@@ -8469,7 +8508,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>18016</v>
       </c>
@@ -8489,7 +8528,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>18017</v>
       </c>
@@ -8509,7 +8548,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>18020</v>
       </c>
@@ -8529,7 +8568,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>18019</v>
       </c>
@@ -8547,6 +8586,206 @@
       </c>
       <c r="H157" t="s">
         <v>380</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>18004</v>
+      </c>
+      <c r="B158">
+        <v>2021</v>
+      </c>
+      <c r="E158" t="s">
+        <v>381</v>
+      </c>
+      <c r="F158" t="s">
+        <v>382</v>
+      </c>
+      <c r="H158" t="s">
+        <v>30</v>
+      </c>
+      <c r="I158" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>18008</v>
+      </c>
+      <c r="B159">
+        <v>2021</v>
+      </c>
+      <c r="E159" t="s">
+        <v>381</v>
+      </c>
+      <c r="F159" t="s">
+        <v>383</v>
+      </c>
+      <c r="H159" t="s">
+        <v>21</v>
+      </c>
+      <c r="I159" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>18009</v>
+      </c>
+      <c r="B160">
+        <v>2021</v>
+      </c>
+      <c r="E160" t="s">
+        <v>381</v>
+      </c>
+      <c r="F160" t="s">
+        <v>384</v>
+      </c>
+      <c r="H160" t="s">
+        <v>30</v>
+      </c>
+      <c r="I160" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>18010</v>
+      </c>
+      <c r="B161">
+        <v>2021</v>
+      </c>
+      <c r="E161" t="s">
+        <v>381</v>
+      </c>
+      <c r="F161" t="s">
+        <v>385</v>
+      </c>
+      <c r="H161" t="s">
+        <v>393</v>
+      </c>
+      <c r="I161" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>18013</v>
+      </c>
+      <c r="B162">
+        <v>2021</v>
+      </c>
+      <c r="E162" t="s">
+        <v>381</v>
+      </c>
+      <c r="F162" t="s">
+        <v>386</v>
+      </c>
+      <c r="H162" t="s">
+        <v>30</v>
+      </c>
+      <c r="I162" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>18015</v>
+      </c>
+      <c r="B163">
+        <v>2021</v>
+      </c>
+      <c r="E163" t="s">
+        <v>381</v>
+      </c>
+      <c r="F163" t="s">
+        <v>387</v>
+      </c>
+      <c r="H163" t="s">
+        <v>270</v>
+      </c>
+      <c r="I163" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>18017</v>
+      </c>
+      <c r="B164">
+        <v>2021</v>
+      </c>
+      <c r="E164" t="s">
+        <v>381</v>
+      </c>
+      <c r="F164" t="s">
+        <v>388</v>
+      </c>
+      <c r="H164" t="s">
+        <v>270</v>
+      </c>
+      <c r="I164" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>18018</v>
+      </c>
+      <c r="B165">
+        <v>2021</v>
+      </c>
+      <c r="E165" t="s">
+        <v>381</v>
+      </c>
+      <c r="F165" t="s">
+        <v>389</v>
+      </c>
+      <c r="H165" t="s">
+        <v>30</v>
+      </c>
+      <c r="I165" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>18020</v>
+      </c>
+      <c r="B166">
+        <v>2021</v>
+      </c>
+      <c r="E166" t="s">
+        <v>381</v>
+      </c>
+      <c r="F166" t="s">
+        <v>347</v>
+      </c>
+      <c r="H166" t="s">
+        <v>30</v>
+      </c>
+      <c r="I166" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>18011</v>
+      </c>
+      <c r="B167">
+        <v>2021</v>
+      </c>
+      <c r="E167" t="s">
+        <v>381</v>
+      </c>
+      <c r="F167" t="s">
+        <v>390</v>
+      </c>
+      <c r="H167" t="s">
+        <v>30</v>
+      </c>
+      <c r="I167" t="s">
+        <v>392</v>
       </c>
     </row>
   </sheetData>
